--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{051DEFE7-7437-4459-AEA5-94C09878B428}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Nro</t>
   </si>
@@ -259,16 +258,34 @@
     <t>CalculoDeBeneficios</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>generarGrafico</t>
+  </si>
+  <si>
+    <t>Genera Estadisticas de Colectivo</t>
+  </si>
+  <si>
+    <t>Genera Estadisticas de Tren</t>
+  </si>
+  <si>
+    <t>Genera Estadisticas de Subte</t>
+  </si>
+  <si>
+    <t>Estadistica</t>
+  </si>
+  <si>
+    <t>Genera Grafico</t>
+  </si>
+  <si>
+    <t>Estadisticas</t>
+  </si>
+  <si>
+    <t>Grafico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -398,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -575,18 +592,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,13 +963,13 @@
         <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,13 +983,13 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,13 +1003,13 @@
         <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,16 +1077,16 @@
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>Nro</t>
   </si>
@@ -57,18 +57,12 @@
     <t>Da de baja una tarjeta</t>
   </si>
   <si>
-    <t>Modifica el beneficio de una tarjeta activa.</t>
-  </si>
-  <si>
     <t>registrarTarjeta</t>
   </si>
   <si>
     <t>Activa una tarjeta y se le asigna el usuario que la activo.</t>
   </si>
   <si>
-    <t>beneficio: Beneficio</t>
-  </si>
-  <si>
     <t>idTarjeta: long</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>Agrega un boleto de tren o subte.</t>
   </si>
   <si>
-    <t>calcularRedSube</t>
-  </si>
-  <si>
     <t>consultarSaldo</t>
   </si>
   <si>
@@ -280,6 +271,39 @@
   </si>
   <si>
     <t>Grafico</t>
+  </si>
+  <si>
+    <t>traerUsuario</t>
+  </si>
+  <si>
+    <t>dni: int</t>
+  </si>
+  <si>
+    <t>validarUsuario</t>
+  </si>
+  <si>
+    <t>dni: int, password: String</t>
+  </si>
+  <si>
+    <t>Trae un usuario por dni.</t>
+  </si>
+  <si>
+    <t>Valida la existencia del usuario y si la contraseña es correcta.</t>
+  </si>
+  <si>
+    <t>SesionUsuario</t>
+  </si>
+  <si>
+    <t>Actualiza la tarjeta modificada en la base de datos.</t>
+  </si>
+  <si>
+    <t>tipoUsuario: Enum</t>
+  </si>
+  <si>
+    <t>usuario: Usuario</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -592,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,13 +716,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,16 +733,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,19 +750,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,19 +770,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,16 +790,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,16 +807,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,19 +824,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,19 +844,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,16 +864,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -857,19 +881,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,19 +901,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,19 +921,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,19 +941,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,19 +961,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,19 +981,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,19 +1001,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,19 +1021,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,16 +1041,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,19 +1058,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,19 +1078,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,19 +1098,59 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
         <v>84</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
         <v>85</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
         <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE5B1A62-9786-4F4F-B69E-48E88DC62968}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Nro</t>
   </si>
@@ -63,9 +64,6 @@
     <t>Activa una tarjeta y se le asigna el usuario que la activo.</t>
   </si>
   <si>
-    <t>idTarjeta: long</t>
-  </si>
-  <si>
     <t>traerTarjeta</t>
   </si>
   <si>
@@ -81,9 +79,6 @@
     <t>Trae una lectora de colectivo.</t>
   </si>
   <si>
-    <t>idLectora: long</t>
-  </si>
-  <si>
     <t>lectora: LectoraDeColectivo</t>
   </si>
   <si>
@@ -111,9 +106,6 @@
     <t>Trae un tramo de colectivo.</t>
   </si>
   <si>
-    <t>idTramo: long</t>
-  </si>
-  <si>
     <t>tramo: TramoColectivo</t>
   </si>
   <si>
@@ -132,12 +124,6 @@
     <t>Carga una tarjeta activa.</t>
   </si>
   <si>
-    <t>idLectora: long, tarjeta:Tarjeta, fechaHora: GregorianCalendar, tramo: TramoColectivo</t>
-  </si>
-  <si>
-    <t>idLectora: long, tarjeta:Tarjeta, fechaHora: GregorianCalendar</t>
-  </si>
-  <si>
     <t>TramosAdmin</t>
   </si>
   <si>
@@ -174,9 +160,6 @@
     <t>viajesRealizadosTren</t>
   </si>
   <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, tipoTransporte: enum</t>
-  </si>
-  <si>
     <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaColectivo: String</t>
   </si>
   <si>
@@ -195,33 +178,12 @@
     <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaSubte: String</t>
   </si>
   <si>
-    <t>estadisitacsColectivo</t>
-  </si>
-  <si>
-    <t>estadisitacsTren</t>
-  </si>
-  <si>
-    <t>estadisticasSubte</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaColectivo: String, tramo: TramoColectivo</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaTren: String, tramo: tramoTrenYSubte</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaSubte: String, tramo: tramoTrenYSubte</t>
-  </si>
-  <si>
     <t>calcularTarifaSocial</t>
   </si>
   <si>
     <t>cargaBoletoEstudiantil</t>
   </si>
   <si>
-    <t>idLectora: long, tarjeta:Tarjeta, fechaHora: GregorianCalendar, monto: int</t>
-  </si>
-  <si>
     <t>Carga la tarjeta haciendo uso del beneficio de boleto estudiantil.</t>
   </si>
   <si>
@@ -243,36 +205,9 @@
     <t>montoTarifaSocial: float</t>
   </si>
   <si>
-    <t>Estadisitca</t>
-  </si>
-  <si>
     <t>CalculoDeBeneficios</t>
   </si>
   <si>
-    <t>generarGrafico</t>
-  </si>
-  <si>
-    <t>Genera Estadisticas de Colectivo</t>
-  </si>
-  <si>
-    <t>Genera Estadisticas de Tren</t>
-  </si>
-  <si>
-    <t>Genera Estadisticas de Subte</t>
-  </si>
-  <si>
-    <t>Estadistica</t>
-  </si>
-  <si>
-    <t>Genera Grafico</t>
-  </si>
-  <si>
-    <t>Estadisticas</t>
-  </si>
-  <si>
-    <t>Grafico</t>
-  </si>
-  <si>
     <t>traerUsuario</t>
   </si>
   <si>
@@ -288,28 +223,70 @@
     <t>Trae un usuario por dni.</t>
   </si>
   <si>
-    <t>Valida la existencia del usuario y si la contraseña es correcta.</t>
-  </si>
-  <si>
     <t>SesionUsuario</t>
   </si>
   <si>
     <t>Actualiza la tarjeta modificada en la base de datos.</t>
   </si>
   <si>
-    <t>tipoUsuario: Enum</t>
-  </si>
-  <si>
     <t>usuario: Usuario</t>
   </si>
   <si>
-    <t>,</t>
+    <t>calcularRedSube</t>
+  </si>
+  <si>
+    <t>numeroSerieTarjeta: int</t>
+  </si>
+  <si>
+    <t>numeroSerieLectora: int</t>
+  </si>
+  <si>
+    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar, tramo: TramoColectivo</t>
+  </si>
+  <si>
+    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar</t>
+  </si>
+  <si>
+    <t>kMin: float, kMax: float</t>
+  </si>
+  <si>
+    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar, monto: int</t>
+  </si>
+  <si>
+    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, tipoTransporte: TipoTransporte</t>
+  </si>
+  <si>
+    <t>tipoUsuario: TipoUsuario</t>
+  </si>
+  <si>
+    <t>Valida la existencia del usuario y si la contraseña es correcta. Devuelve el tipo de usuario.</t>
+  </si>
+  <si>
+    <t>traerLectoraCarga</t>
+  </si>
+  <si>
+    <t>Trae una lectora de carga.</t>
+  </si>
+  <si>
+    <t>lectora: LectoraCarga</t>
+  </si>
+  <si>
+    <t>traerLectoraAutonoma</t>
+  </si>
+  <si>
+    <t>Trae una lectora autonoma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numeroSerieLectora: int</t>
+  </si>
+  <si>
+    <t>lectora: LectoraAutonoma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,11 +316,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,18 +590,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +609,7 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="73.42578125" customWidth="1"/>
+    <col min="4" max="4" width="80.42578125" customWidth="1"/>
     <col min="5" max="5" width="98.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
@@ -685,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,9 +678,6 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -722,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,19 +721,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,19 +741,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,16 +761,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,16 +781,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,19 +801,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,19 +818,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,16 +835,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -881,19 +855,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,19 +875,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,19 +892,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,19 +912,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,19 +929,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,19 +949,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,19 +969,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,19 +989,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,16 +1009,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,19 +1029,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1078,19 +1049,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1098,59 +1069,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE5B1A62-9786-4F4F-B69E-48E88DC62968}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5668CD24-17BB-40EF-BF63-8C5BC133D8B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>Nro</t>
   </si>
@@ -85,9 +85,6 @@
     <t>agregarBoleto</t>
   </si>
   <si>
-    <t>Agrega un boleto de colectivo</t>
-  </si>
-  <si>
     <t>AdminDeLectoras</t>
   </si>
   <si>
@@ -187,27 +184,9 @@
     <t>Carga la tarjeta haciendo uso del beneficio de boleto estudiantil.</t>
   </si>
   <si>
-    <t xml:space="preserve">boletos:List&lt;Boleto&gt;, montoBoletoActual: float, </t>
-  </si>
-  <si>
-    <t>montoRedSube: float</t>
-  </si>
-  <si>
-    <t>Revisa los viajes hechos en las ultimas 2 horas y calcula el monto del viaje actual.</t>
-  </si>
-  <si>
-    <t>devuelve el monto del viaje actual con el descuento de la tarifa Social.</t>
-  </si>
-  <si>
-    <t>montoBoletoActual: float</t>
-  </si>
-  <si>
     <t>montoTarifaSocial: float</t>
   </si>
   <si>
-    <t>CalculoDeBeneficios</t>
-  </si>
-  <si>
     <t>traerUsuario</t>
   </si>
   <si>
@@ -281,6 +260,39 @@
   </si>
   <si>
     <t>lectora: LectoraAutonoma</t>
+  </si>
+  <si>
+    <t>traerBoletosRedSube</t>
+  </si>
+  <si>
+    <t>MovimientoAlta</t>
+  </si>
+  <si>
+    <t>Crea un objeto boleto con tramo de colectivo y le resta el saldo a la tarjeta.</t>
+  </si>
+  <si>
+    <t>agrega un boleto a la base de datos</t>
+  </si>
+  <si>
+    <t>boleto:Boleto</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>traerTarifaSocial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boletos:List&lt;Boleto&gt;, nuevoBoleto: Boleto </t>
+  </si>
+  <si>
+    <t>Al nuevo boleto le cambia el monto (si corresponde) revisando los boletos de las ultimas 2 horas.</t>
+  </si>
+  <si>
+    <t>nuevoBoleto: Boleto</t>
+  </si>
+  <si>
+    <t>Al nuevo boleto le cambia el monto (si corresponde) descontando el porcentaje de la tarifa social.</t>
   </si>
 </sst>
 </file>
@@ -598,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +621,7 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="80.42578125" customWidth="1"/>
+    <col min="4" max="4" width="95.85546875" customWidth="1"/>
     <col min="5" max="5" width="98.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
@@ -659,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -693,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -721,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -730,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -741,19 +753,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,19 +773,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,19 +793,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,16 +813,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,19 +847,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,19 +867,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,16 +887,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,19 +904,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,16 +924,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,19 +941,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,19 +958,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,19 +978,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,19 +998,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,19 +1018,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,19 +1038,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,19 +1058,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
         <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,19 +1078,58 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5668CD24-17BB-40EF-BF63-8C5BC133D8B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{92FA3C94-A730-4DEF-85EE-F34858FD03C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>Nro</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Al nuevo boleto le cambia el monto (si corresponde) descontando el porcentaje de la tarifa social.</t>
+  </si>
+  <si>
+    <t>traerTarjetaConBeneficios</t>
   </si>
 </sst>
 </file>
@@ -610,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,6 +1135,17 @@
         <v>86</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{92FA3C94-A730-4DEF-85EE-F34858FD03C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20BAA452-470B-476E-BB5E-B9FDB8407195}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>Nro</t>
   </si>
@@ -106,196 +106,202 @@
     <t>tramo: TramoColectivo</t>
   </si>
   <si>
+    <t>Trae un tramo de tren o subte.</t>
+  </si>
+  <si>
+    <t>estacion1: Estacion, estacion2: Estacion</t>
+  </si>
+  <si>
+    <t>cargarTarjeta</t>
+  </si>
+  <si>
+    <t>Carga una tarjeta activa.</t>
+  </si>
+  <si>
+    <t>Agrega un boleto de tren o subte.</t>
+  </si>
+  <si>
+    <t>consultarSaldo</t>
+  </si>
+  <si>
+    <t>Consulta el saldo de una tarjeta</t>
+  </si>
+  <si>
+    <t>saldo: float</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>boletos: List&lt;Boleto&gt;</t>
+  </si>
+  <si>
+    <t>viajesRealizados</t>
+  </si>
+  <si>
+    <t>Devuelve una lista de viajes realizados por tipo de transporte.</t>
+  </si>
+  <si>
+    <t>viajesRealizadosColectivo</t>
+  </si>
+  <si>
+    <t>Devuelve una lista de viajes realizados por linea de colectivo.</t>
+  </si>
+  <si>
+    <t>viajesRealizadosTren</t>
+  </si>
+  <si>
+    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaColectivo: String</t>
+  </si>
+  <si>
+    <t>Devuelve una lista de viajes realizados por linea de tren.</t>
+  </si>
+  <si>
+    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaTren: String</t>
+  </si>
+  <si>
+    <t>viajesRealizadosSubte</t>
+  </si>
+  <si>
+    <t>Devuelve una lista de viajes realizados por linea de subte.</t>
+  </si>
+  <si>
+    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaSubte: String</t>
+  </si>
+  <si>
+    <t>calcularTarifaSocial</t>
+  </si>
+  <si>
+    <t>cargaBoletoEstudiantil</t>
+  </si>
+  <si>
+    <t>Carga la tarjeta haciendo uso del beneficio de boleto estudiantil.</t>
+  </si>
+  <si>
+    <t>montoTarifaSocial: float</t>
+  </si>
+  <si>
+    <t>traerUsuario</t>
+  </si>
+  <si>
+    <t>dni: int</t>
+  </si>
+  <si>
+    <t>validarUsuario</t>
+  </si>
+  <si>
+    <t>dni: int, password: String</t>
+  </si>
+  <si>
+    <t>Trae un usuario por dni.</t>
+  </si>
+  <si>
+    <t>SesionUsuario</t>
+  </si>
+  <si>
+    <t>Actualiza la tarjeta modificada en la base de datos.</t>
+  </si>
+  <si>
+    <t>usuario: Usuario</t>
+  </si>
+  <si>
+    <t>calcularRedSube</t>
+  </si>
+  <si>
+    <t>numeroSerieTarjeta: int</t>
+  </si>
+  <si>
+    <t>numeroSerieLectora: int</t>
+  </si>
+  <si>
+    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar, tramo: TramoColectivo</t>
+  </si>
+  <si>
+    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar</t>
+  </si>
+  <si>
+    <t>kMin: float, kMax: float</t>
+  </si>
+  <si>
+    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar, monto: int</t>
+  </si>
+  <si>
+    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, tipoTransporte: TipoTransporte</t>
+  </si>
+  <si>
+    <t>tipoUsuario: TipoUsuario</t>
+  </si>
+  <si>
+    <t>Valida la existencia del usuario y si la contraseña es correcta. Devuelve el tipo de usuario.</t>
+  </si>
+  <si>
+    <t>traerLectoraCarga</t>
+  </si>
+  <si>
+    <t>Trae una lectora de carga.</t>
+  </si>
+  <si>
+    <t>lectora: LectoraCarga</t>
+  </si>
+  <si>
+    <t>traerLectoraAutonoma</t>
+  </si>
+  <si>
+    <t>Trae una lectora autonoma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numeroSerieLectora: int</t>
+  </si>
+  <si>
+    <t>lectora: LectoraAutonoma</t>
+  </si>
+  <si>
+    <t>traerBoletosRedSube</t>
+  </si>
+  <si>
+    <t>MovimientoAlta</t>
+  </si>
+  <si>
+    <t>Crea un objeto boleto con tramo de colectivo y le resta el saldo a la tarjeta.</t>
+  </si>
+  <si>
+    <t>agrega un boleto a la base de datos</t>
+  </si>
+  <si>
+    <t>boleto:Boleto</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>traerTarifaSocial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boletos:List&lt;Boleto&gt;, nuevoBoleto: Boleto </t>
+  </si>
+  <si>
+    <t>Al nuevo boleto le cambia el monto (si corresponde) revisando los boletos de las ultimas 2 horas.</t>
+  </si>
+  <si>
+    <t>nuevoBoleto: Boleto</t>
+  </si>
+  <si>
+    <t>Al nuevo boleto le cambia el monto (si corresponde) descontando el porcentaje de la tarifa social.</t>
+  </si>
+  <si>
+    <t>traerTarjetaConBeneficios</t>
+  </si>
+  <si>
+    <t>TramosConsultas</t>
+  </si>
+  <si>
+    <t>traerUltimoBoleto</t>
+  </si>
+  <si>
     <t>traerTramoTrenYSubte</t>
   </si>
   <si>
-    <t>Trae un tramo de tren o subte.</t>
-  </si>
-  <si>
-    <t>estacion1: Estacion, estacion2: Estacion</t>
-  </si>
-  <si>
-    <t>cargarTarjeta</t>
-  </si>
-  <si>
-    <t>Carga una tarjeta activa.</t>
-  </si>
-  <si>
-    <t>TramosAdmin</t>
-  </si>
-  <si>
-    <t>Agrega un boleto de tren o subte.</t>
-  </si>
-  <si>
-    <t>consultarSaldo</t>
-  </si>
-  <si>
-    <t>Consulta el saldo de una tarjeta</t>
-  </si>
-  <si>
-    <t>saldo: float</t>
-  </si>
-  <si>
-    <t>Reporte</t>
-  </si>
-  <si>
-    <t>boletos: List&lt;Boleto&gt;</t>
-  </si>
-  <si>
-    <t>viajesRealizados</t>
-  </si>
-  <si>
-    <t>Devuelve una lista de viajes realizados por tipo de transporte.</t>
-  </si>
-  <si>
-    <t>viajesRealizadosColectivo</t>
-  </si>
-  <si>
-    <t>Devuelve una lista de viajes realizados por linea de colectivo.</t>
-  </si>
-  <si>
-    <t>viajesRealizadosTren</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaColectivo: String</t>
-  </si>
-  <si>
-    <t>Devuelve una lista de viajes realizados por linea de tren.</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaTren: String</t>
-  </si>
-  <si>
-    <t>viajesRealizadosSubte</t>
-  </si>
-  <si>
-    <t>Devuelve una lista de viajes realizados por linea de subte.</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaSubte: String</t>
-  </si>
-  <si>
-    <t>calcularTarifaSocial</t>
-  </si>
-  <si>
-    <t>cargaBoletoEstudiantil</t>
-  </si>
-  <si>
-    <t>Carga la tarjeta haciendo uso del beneficio de boleto estudiantil.</t>
-  </si>
-  <si>
-    <t>montoTarifaSocial: float</t>
-  </si>
-  <si>
-    <t>traerUsuario</t>
-  </si>
-  <si>
-    <t>dni: int</t>
-  </si>
-  <si>
-    <t>validarUsuario</t>
-  </si>
-  <si>
-    <t>dni: int, password: String</t>
-  </si>
-  <si>
-    <t>Trae un usuario por dni.</t>
-  </si>
-  <si>
-    <t>SesionUsuario</t>
-  </si>
-  <si>
-    <t>Actualiza la tarjeta modificada en la base de datos.</t>
-  </si>
-  <si>
-    <t>usuario: Usuario</t>
-  </si>
-  <si>
-    <t>calcularRedSube</t>
-  </si>
-  <si>
-    <t>numeroSerieTarjeta: int</t>
-  </si>
-  <si>
-    <t>numeroSerieLectora: int</t>
-  </si>
-  <si>
-    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar, tramo: TramoColectivo</t>
-  </si>
-  <si>
-    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar</t>
-  </si>
-  <si>
-    <t>kMin: float, kMax: float</t>
-  </si>
-  <si>
-    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar, monto: int</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, tipoTransporte: TipoTransporte</t>
-  </si>
-  <si>
-    <t>tipoUsuario: TipoUsuario</t>
-  </si>
-  <si>
-    <t>Valida la existencia del usuario y si la contraseña es correcta. Devuelve el tipo de usuario.</t>
-  </si>
-  <si>
-    <t>traerLectoraCarga</t>
-  </si>
-  <si>
-    <t>Trae una lectora de carga.</t>
-  </si>
-  <si>
-    <t>lectora: LectoraCarga</t>
-  </si>
-  <si>
-    <t>traerLectoraAutonoma</t>
-  </si>
-  <si>
-    <t>Trae una lectora autonoma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> numeroSerieLectora: int</t>
-  </si>
-  <si>
-    <t>lectora: LectoraAutonoma</t>
-  </si>
-  <si>
-    <t>traerBoletosRedSube</t>
-  </si>
-  <si>
-    <t>MovimientoAlta</t>
-  </si>
-  <si>
-    <t>Crea un objeto boleto con tramo de colectivo y le resta el saldo a la tarjeta.</t>
-  </si>
-  <si>
-    <t>agrega un boleto a la base de datos</t>
-  </si>
-  <si>
-    <t>boleto:Boleto</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>traerTarifaSocial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boletos:List&lt;Boleto&gt;, nuevoBoleto: Boleto </t>
-  </si>
-  <si>
-    <t>Al nuevo boleto le cambia el monto (si corresponde) revisando los boletos de las ultimas 2 horas.</t>
-  </si>
-  <si>
-    <t>nuevoBoleto: Boleto</t>
-  </si>
-  <si>
-    <t>Al nuevo boleto le cambia el monto (si corresponde) descontando el porcentaje de la tarifa social.</t>
-  </si>
-  <si>
-    <t>traerTarjetaConBeneficios</t>
+    <t>traerTramoUnaEstacion</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -708,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -745,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -765,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -779,16 +785,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,16 +805,16 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
         <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -822,10 +828,10 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,10 +845,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -859,7 +865,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -870,16 +876,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -893,13 +899,13 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,16 +916,16 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,13 +936,13 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,16 +950,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,19 +967,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,19 +987,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,19 +1007,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,19 +1027,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,19 +1047,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,19 +1067,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,19 +1087,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,16 +1107,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,10 +1124,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1143,6 +1149,19 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20BAA452-470B-476E-BB5E-B9FDB8407195}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54EFCD67-BB60-464C-BC89-26CEFE33F72D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>Nro</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>traerTramoUnaEstacion</t>
+  </si>
+  <si>
+    <t>traerTransportePorTipo</t>
   </si>
 </sst>
 </file>
@@ -1160,6 +1163,11 @@
         <v>93</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>91</v>

--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54EFCD67-BB60-464C-BC89-26CEFE33F72D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20BAA452-470B-476E-BB5E-B9FDB8407195}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>Nro</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>traerTramoUnaEstacion</t>
-  </si>
-  <si>
-    <t>traerTransportePorTipo</t>
   </si>
 </sst>
 </file>
@@ -1163,11 +1160,6 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>91</v>

--- a/Documentacion/Casos de uso/Casos de uso.xlsx
+++ b/Documentacion/Casos de uso/Casos de uso.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20BAA452-470B-476E-BB5E-B9FDB8407195}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1EC5597E-7534-4738-B1F1-DD5373731E34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="204">
   <si>
     <t>Nro</t>
   </si>
@@ -37,271 +37,601 @@
     <t>Parametros De Entrada</t>
   </si>
   <si>
-    <t>Valores de Retorno</t>
+    <t>agregarBoleto</t>
+  </si>
+  <si>
+    <t>calcularTarifaSocial</t>
+  </si>
+  <si>
+    <t>calcularRedSube</t>
+  </si>
+  <si>
+    <t>traerLectoraCarga</t>
+  </si>
+  <si>
+    <t>traerBoletosRedSube</t>
+  </si>
+  <si>
+    <t>agrega un boleto a la base de datos</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>EstacionABM</t>
+  </si>
+  <si>
+    <t>traerEstacion</t>
+  </si>
+  <si>
+    <t>String estacion</t>
+  </si>
+  <si>
+    <t>Trae una estacion por su nombre.</t>
+  </si>
+  <si>
+    <t>traerEstacionPorTransporte</t>
+  </si>
+  <si>
+    <t>Trae una lista de estaciones por transporte.</t>
+  </si>
+  <si>
+    <t>long idTransporte</t>
+  </si>
+  <si>
+    <t>List&lt;Estacion&gt; estaciones</t>
+  </si>
+  <si>
+    <t>stringListaNombresDeEstaciones</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Devuelve el porcentaje de descuento según el numero de combinacion.</t>
+  </si>
+  <si>
+    <t>int redSube</t>
+  </si>
+  <si>
+    <t>Calcula el precio del boleto con el descuento de tarifa social.</t>
+  </si>
+  <si>
+    <t>Boleto nuevoBoleto, TarifaSocial tarifa</t>
+  </si>
+  <si>
+    <t>calcularTarifaSocialTren</t>
+  </si>
+  <si>
+    <t>Calcula la devolucion para el boleto de salida de tren con el descuento de tarifa social.</t>
+  </si>
+  <si>
+    <t>(Boleto nuevoBoleto, float montoBoletoEntrada, TarifaSocial tarifa</t>
+  </si>
+  <si>
+    <t>redondea2D</t>
+  </si>
+  <si>
+    <t>Redondea un float a 2 decimales.</t>
+  </si>
+  <si>
+    <t>float valor</t>
+  </si>
+  <si>
+    <t>tarjetaContieneTarifaSocial</t>
+  </si>
+  <si>
+    <t>Set&lt;Beneficio&gt; beneficios, TarifaSocial tarifa</t>
+  </si>
+  <si>
+    <t>Comprueba si el set de beneficios de una tarjeta tiene el beneficio de tarifa social.</t>
+  </si>
+  <si>
+    <t>tiempoDeViajeValido</t>
+  </si>
+  <si>
+    <t>Comprueba que haya una diferencia maxima de dos horas entre la fecha actual y una fecha anterior.</t>
+  </si>
+  <si>
+    <t>GregorianCalendar fechaAnterior, GregorianCalendar fechaActual</t>
+  </si>
+  <si>
+    <t>TraeFechaYHora</t>
+  </si>
+  <si>
+    <t>Devuelve una fecha en string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GregorianCalendar fecha. </t>
+  </si>
+  <si>
+    <t>LectoraABM</t>
+  </si>
+  <si>
+    <t>LectoraColectivo lectora, Tarjeta tarjeta, GregorianCalendar fechaHora, TramoColectivo tramo</t>
+  </si>
+  <si>
+    <t>Agrega un boleto de colectivo a la base de datos y actualiza el saldo de la tarjeta.</t>
+  </si>
+  <si>
+    <t>Agrega un boleto de ctren o subte a la base de datos y actualiza el saldo de la tarjeta.</t>
+  </si>
+  <si>
+    <t>ectoraEstacion lectora, Tarjeta tarjeta, GregorianCalendar fechaHora</t>
+  </si>
+  <si>
+    <t>agregarRecarga</t>
+  </si>
+  <si>
+    <t>int numSerieLectora, int numSerieTarjeta, GregorianCalendar fechaHora, float monto,boolean esRecargaEstudiantil</t>
+  </si>
+  <si>
+    <t>Agrega una recarga a la tarjeta</t>
+  </si>
+  <si>
+    <t>Recarga recarga</t>
+  </si>
+  <si>
+    <t>crearBoletoSubte</t>
+  </si>
+  <si>
+    <t>LectoraEstacion lectora, Tarjeta tarjeta, GregorianCalendar fechaHora,TramoTrenYSubte tramo,List&lt;Boleto&gt; lstBoletosUltimas2horas,Boleto boletoAnterior</t>
+  </si>
+  <si>
+    <t>crearBoletoTren</t>
+  </si>
+  <si>
+    <t>Crea una instancia de boleto de tren.</t>
+  </si>
+  <si>
+    <t>Crea una instancia de boleto de subte.</t>
+  </si>
+  <si>
+    <t>esBoletoDeEntradaTren</t>
+  </si>
+  <si>
+    <t>Comprueba si un boleto es la entrada de un tren.</t>
+  </si>
+  <si>
+    <t>Boleto boletoAnterior</t>
+  </si>
+  <si>
+    <t>esMismoTransporteYDiferenteEstacion</t>
+  </si>
+  <si>
+    <t>Comprueba que dos estaciones distintas pertenezcan al mismo transporte</t>
+  </si>
+  <si>
+    <t>Estacion estacion1, Estacion estacion2</t>
+  </si>
+  <si>
+    <t>redSubeEnCurso</t>
+  </si>
+  <si>
+    <t>Comprueba si la red sube sigue en curso.</t>
+  </si>
+  <si>
+    <t>List&lt;Boleto&gt; lstBoletosUltimas2horas</t>
+  </si>
+  <si>
+    <t>Estacion</t>
+  </si>
+  <si>
+    <t>List&lt;Estacion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float </t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>Boleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boleto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recarga </t>
+  </si>
+  <si>
+    <t>lineaTransporteRepetidaEnRedSube</t>
+  </si>
+  <si>
+    <t>Comprueba que no se repita la linea en el transcurso de la red sube.</t>
+  </si>
+  <si>
+    <t>List&lt;Boleto&gt; lstBoletosUltimas2horas, Transporte transporte</t>
+  </si>
+  <si>
+    <t>Tipo de Retorno</t>
+  </si>
+  <si>
+    <t>previsualizarBoleto</t>
+  </si>
+  <si>
+    <t>Devuelve un boleto de colectivo que aun no fue cargado a la base de datos para visualizarlo.</t>
+  </si>
+  <si>
+    <t>Devuelve un boleto de tren o subte que aun no fue cargado a la base de datos para visualizarlo.</t>
+  </si>
+  <si>
+    <t>LectoraEstacion lectora, Tarjeta tarjeta, GregorianCalendar fechaHora</t>
+  </si>
+  <si>
+    <t>stringDeListaLectoras</t>
+  </si>
+  <si>
+    <t>List&lt;Lectora&gt; lstLectora</t>
+  </si>
+  <si>
+    <t>Devuelve un string con el nombre de todas las estaciones de una lista.</t>
+  </si>
+  <si>
+    <t>Devuelve un string con el numero de todas las lectoras de una lista.</t>
+  </si>
+  <si>
+    <t>subteRepetidoEnRedSube</t>
+  </si>
+  <si>
+    <t>Comprueba que no se viaje mas de una vez en subte en el transcurso de red sube.</t>
+  </si>
+  <si>
+    <t>(List&lt;Boleto&gt; lstBoletosUltimas2horas</t>
+  </si>
+  <si>
+    <t>traerBoletoAnterio</t>
+  </si>
+  <si>
+    <t>devuelve el ultimo boleto de una tarjetea</t>
+  </si>
+  <si>
+    <t>Tarjeta tarjeta</t>
+  </si>
+  <si>
+    <t>traerLectora</t>
+  </si>
+  <si>
+    <t>Devuelve una lectora</t>
+  </si>
+  <si>
+    <t>int numSerieLectora</t>
+  </si>
+  <si>
+    <t>Lectora</t>
+  </si>
+  <si>
+    <t>devuelve una lectora de carga</t>
+  </si>
+  <si>
+    <t>LectoraCarga</t>
+  </si>
+  <si>
+    <t>traerLectoraColectivo</t>
+  </si>
+  <si>
+    <t>devuelve una lectora de colectivo</t>
+  </si>
+  <si>
+    <t>LectoraColectivo</t>
+  </si>
+  <si>
+    <t>traerLectoraEstacion</t>
+  </si>
+  <si>
+    <t>devuelve una lectora de estacion</t>
+  </si>
+  <si>
+    <t>LectoraEstacion</t>
+  </si>
+  <si>
+    <t>traerLectorasPorEstacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estacion estacion </t>
+  </si>
+  <si>
+    <t>devuelve una lista de lectoras de estacion</t>
+  </si>
+  <si>
+    <t>List&lt;LectoraEstacion&gt;</t>
+  </si>
+  <si>
+    <t>traerLectorasPorLinea</t>
+  </si>
+  <si>
+    <t>devuelve una lista de lectoras de colectivo</t>
+  </si>
+  <si>
+    <t>List&lt;LectoraColectivo&gt;</t>
+  </si>
+  <si>
+    <t>MovimientoABM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boleto boleto </t>
+  </si>
+  <si>
+    <t>agrega una movimiento de tipo recarga a la base de datos</t>
+  </si>
+  <si>
+    <t>esFechaValida</t>
+  </si>
+  <si>
+    <t>Comprueba que la fecha del ultimo boleto sea anterior a la fecha actual</t>
+  </si>
+  <si>
+    <t>GregorianCalendar fechaActual</t>
+  </si>
+  <si>
+    <t>trae los boletos de las ultimas 2 horas de una tarjeta.</t>
+  </si>
+  <si>
+    <t>Tarjeta tarjeta, GregorianCalendar fechaActual</t>
+  </si>
+  <si>
+    <t>List&lt;Boleto&gt;</t>
+  </si>
+  <si>
+    <t>traerMovimientoCompleto</t>
+  </si>
+  <si>
+    <t>trae una lista de movimientos con todos los datos</t>
+  </si>
+  <si>
+    <t>List&lt;Movimiento&gt;</t>
+  </si>
+  <si>
+    <t>traerMovimientoCompletoPorTarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trae una lista de movimientos de una tarjeta </t>
+  </si>
+  <si>
+    <t>long idTarjeta</t>
+  </si>
+  <si>
+    <t>traerRecargaEstudiantil</t>
+  </si>
+  <si>
+    <t>trae la instancia de recarga estudiantil</t>
+  </si>
+  <si>
+    <t>RecargaEstudiantil</t>
+  </si>
+  <si>
+    <t>traerUltimoMovimiento</t>
+  </si>
+  <si>
+    <t>trae el ultimo movimiento de toda la base de datos.</t>
+  </si>
+  <si>
+    <t>Movimiento</t>
+  </si>
+  <si>
+    <t>viajesRealizados</t>
+  </si>
+  <si>
+    <t>trae una lista de viajes realizados entre fechas por tipo de beneficio</t>
+  </si>
+  <si>
+    <t>GregorianCalendar fechaDesde, GregorianCalendar fechaHasta, Beneficio beneficio</t>
+  </si>
+  <si>
+    <t>trae una lista de viajes realizados entre fechas por tipo de transporte</t>
+  </si>
+  <si>
+    <t>GregorianCalendar fechaDesde, GregorianCalendar fechaHasta, TipoTransporte tipoTransporte</t>
+  </si>
+  <si>
+    <t>trae una lista de viajes realizados entre fechas por linea de transporte</t>
+  </si>
+  <si>
+    <t>GregorianCalendar fechaDesde, GregorianCalendar fechaHasta, Transporte transporte</t>
+  </si>
+  <si>
+    <t>viajesRealizadosConRedSube</t>
+  </si>
+  <si>
+    <t>trae una lista de viajes realizados con descuento de red sube</t>
+  </si>
+  <si>
+    <t>GregorianCalendar fechaDesde, GregorianCalendar fechaHasta</t>
+  </si>
+  <si>
+    <t>darBaja</t>
+  </si>
+  <si>
+    <t>Pone inactiva una tarjeta</t>
+  </si>
+  <si>
+    <t>modificarTarjeta</t>
+  </si>
+  <si>
+    <t>actualiza una tarjeta en a base de datos</t>
+  </si>
+  <si>
+    <t>registrarTarjeta</t>
+  </si>
+  <si>
+    <t>registra una tarjeta a un usuario, la activa y pone el saldo en 0.</t>
+  </si>
+  <si>
+    <t>Tarjeta tarjeta, Usuario usuario</t>
+  </si>
+  <si>
+    <t>stringListaTarjetas</t>
+  </si>
+  <si>
+    <t>Devuelve un string con el numero de todas las tarjetas de una lista.</t>
+  </si>
+  <si>
+    <t>List&lt;Tarjeta&gt; lstTarjeta</t>
+  </si>
+  <si>
+    <t>tarjetaContieneBoletoEstudiantil</t>
+  </si>
+  <si>
+    <t>Comprueba si una tarjeta contiene el beneficio de BoletoEstudiantil</t>
+  </si>
+  <si>
+    <t>tieneTarifaSocial</t>
+  </si>
+  <si>
+    <t>Comprueba si una tarjeta contiene el beneficio de Tarifa Social</t>
   </si>
   <si>
     <t>TarjetaABM</t>
   </si>
   <si>
-    <t>agregarTarjeta</t>
-  </si>
-  <si>
-    <t>Agrega una tarjeta inactiva y sin usuario.</t>
-  </si>
-  <si>
-    <t>modificarTarjeta</t>
-  </si>
-  <si>
-    <t>darDeBajaTarjeta</t>
-  </si>
-  <si>
-    <t>Da de baja una tarjeta</t>
-  </si>
-  <si>
-    <t>registrarTarjeta</t>
-  </si>
-  <si>
-    <t>Activa una tarjeta y se le asigna el usuario que la activo.</t>
-  </si>
-  <si>
     <t>traerTarjeta</t>
   </si>
   <si>
-    <t>Trae una tarjeta de la base de datos.</t>
-  </si>
-  <si>
-    <t>tarjeta: Tarjeta</t>
-  </si>
-  <si>
-    <t>traerLectoraDeColectivo</t>
-  </si>
-  <si>
-    <t>Trae una lectora de colectivo.</t>
-  </si>
-  <si>
-    <t>lectora: LectoraDeColectivo</t>
-  </si>
-  <si>
-    <t>agregarBoleto</t>
-  </si>
-  <si>
-    <t>AdminDeLectoras</t>
+    <t>trae la lista de todas las tarjetas</t>
+  </si>
+  <si>
+    <t>List&lt;Tarjeta&gt;</t>
+  </si>
+  <si>
+    <t>trae una tarjeta por su numero serie</t>
+  </si>
+  <si>
+    <t>int numeroSerieTarjeta</t>
+  </si>
+  <si>
+    <t>traerTarjetaActiva</t>
+  </si>
+  <si>
+    <t>trae la tarjeta activa de un usuario</t>
+  </si>
+  <si>
+    <t>long idUsuario</t>
+  </si>
+  <si>
+    <t>traerTarjetaConBeneficios</t>
+  </si>
+  <si>
+    <t>trae una lista de tarjetas con la lista de sus beneficios</t>
+  </si>
+  <si>
+    <t>trae una tarjeta con la lista de sus beneficios</t>
+  </si>
+  <si>
+    <t>TramoABM</t>
+  </si>
+  <si>
+    <t>stringDeListaTramoColectivo</t>
+  </si>
+  <si>
+    <t>Devuelve un string con los nombres de los tramos de una lista.</t>
+  </si>
+  <si>
+    <t>List&lt;TramoColectivo&gt; lstTramoColectivo</t>
+  </si>
+  <si>
+    <t>List&lt;TramoColectivo&gt;</t>
   </si>
   <si>
     <t>traerTramoColectivo</t>
   </si>
   <si>
-    <t>traerLectoraTrenYSubte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trae una lectora de Tren o Subte. </t>
-  </si>
-  <si>
-    <t>lectora: LectoraTrenYSubte</t>
-  </si>
-  <si>
-    <t>Trae un tramo de colectivo.</t>
-  </si>
-  <si>
-    <t>tramo: TramoColectivo</t>
-  </si>
-  <si>
-    <t>Trae un tramo de tren o subte.</t>
-  </si>
-  <si>
-    <t>estacion1: Estacion, estacion2: Estacion</t>
-  </si>
-  <si>
-    <t>cargarTarjeta</t>
-  </si>
-  <si>
-    <t>Carga una tarjeta activa.</t>
-  </si>
-  <si>
-    <t>Agrega un boleto de tren o subte.</t>
-  </si>
-  <si>
-    <t>consultarSaldo</t>
-  </si>
-  <si>
-    <t>Consulta el saldo de una tarjeta</t>
-  </si>
-  <si>
-    <t>saldo: float</t>
-  </si>
-  <si>
-    <t>Reporte</t>
-  </si>
-  <si>
-    <t>boletos: List&lt;Boleto&gt;</t>
-  </si>
-  <si>
-    <t>viajesRealizados</t>
-  </si>
-  <si>
-    <t>Devuelve una lista de viajes realizados por tipo de transporte.</t>
-  </si>
-  <si>
-    <t>viajesRealizadosColectivo</t>
-  </si>
-  <si>
-    <t>Devuelve una lista de viajes realizados por linea de colectivo.</t>
-  </si>
-  <si>
-    <t>viajesRealizadosTren</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaColectivo: String</t>
-  </si>
-  <si>
-    <t>Devuelve una lista de viajes realizados por linea de tren.</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaTren: String</t>
-  </si>
-  <si>
-    <t>viajesRealizadosSubte</t>
-  </si>
-  <si>
-    <t>Devuelve una lista de viajes realizados por linea de subte.</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, lineaSubte: String</t>
-  </si>
-  <si>
-    <t>calcularTarifaSocial</t>
-  </si>
-  <si>
-    <t>cargaBoletoEstudiantil</t>
-  </si>
-  <si>
-    <t>Carga la tarjeta haciendo uso del beneficio de boleto estudiantil.</t>
-  </si>
-  <si>
-    <t>montoTarifaSocial: float</t>
+    <t>devuelve la lista de tramos de colectivo</t>
+  </si>
+  <si>
+    <t>trae un tramo de colectivo por su nombre</t>
+  </si>
+  <si>
+    <t>String nombreTramo</t>
+  </si>
+  <si>
+    <t>TramoColectivo</t>
+  </si>
+  <si>
+    <t>traerTramoTrenYSubte</t>
+  </si>
+  <si>
+    <t>trae un tramo de tren o subte con la tarifa maxima</t>
+  </si>
+  <si>
+    <t>long idEstacion</t>
+  </si>
+  <si>
+    <t>TramoTrenYSubte</t>
+  </si>
+  <si>
+    <t>trae un tramo de tren o subte con la tarifa de salida.</t>
+  </si>
+  <si>
+    <t>long idEstacionA, long idEstacionB</t>
+  </si>
+  <si>
+    <t>TransporteABM</t>
+  </si>
+  <si>
+    <t>stringListaDeNombresDeLineas</t>
+  </si>
+  <si>
+    <t>Devuelve un string con los nombres de los transportes de una lista.</t>
+  </si>
+  <si>
+    <t>List&lt;Transporte&gt; lstTransporte</t>
+  </si>
+  <si>
+    <t>traerLineasPorTransporte</t>
+  </si>
+  <si>
+    <t>devuelve una lista de lineas de un tipo de transporte</t>
+  </si>
+  <si>
+    <t>TipoTransporte tipoTransporte</t>
+  </si>
+  <si>
+    <t>List&lt;Transporte&gt;</t>
+  </si>
+  <si>
+    <t>traerTransporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devuelve un transporte </t>
+  </si>
+  <si>
+    <t>String linea</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>UsuarioABM</t>
+  </si>
+  <si>
+    <t>comprobarPassword</t>
+  </si>
+  <si>
+    <t>comprueba el que el nombre de usuario y la contraseña sean correctos</t>
+  </si>
+  <si>
+    <t>String user, String pass</t>
+  </si>
+  <si>
+    <t>Usuario</t>
   </si>
   <si>
     <t>traerUsuario</t>
   </si>
   <si>
-    <t>dni: int</t>
-  </si>
-  <si>
-    <t>validarUsuario</t>
-  </si>
-  <si>
-    <t>dni: int, password: String</t>
-  </si>
-  <si>
-    <t>Trae un usuario por dni.</t>
-  </si>
-  <si>
-    <t>SesionUsuario</t>
-  </si>
-  <si>
-    <t>Actualiza la tarjeta modificada en la base de datos.</t>
-  </si>
-  <si>
-    <t>usuario: Usuario</t>
-  </si>
-  <si>
-    <t>calcularRedSube</t>
-  </si>
-  <si>
-    <t>numeroSerieTarjeta: int</t>
-  </si>
-  <si>
-    <t>numeroSerieLectora: int</t>
-  </si>
-  <si>
-    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar, tramo: TramoColectivo</t>
-  </si>
-  <si>
-    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar</t>
-  </si>
-  <si>
-    <t>kMin: float, kMax: float</t>
-  </si>
-  <si>
-    <t>numeroSerieLectora: int, tarjeta:Tarjeta, fechaHora: GregorianCalendar, monto: int</t>
-  </si>
-  <si>
-    <t>fechaDesde: GregorianCalendar, fechaHasta: GregorianCalendar, tipoTransporte: TipoTransporte</t>
-  </si>
-  <si>
-    <t>tipoUsuario: TipoUsuario</t>
-  </si>
-  <si>
-    <t>Valida la existencia del usuario y si la contraseña es correcta. Devuelve el tipo de usuario.</t>
-  </si>
-  <si>
-    <t>traerLectoraCarga</t>
-  </si>
-  <si>
-    <t>Trae una lectora de carga.</t>
-  </si>
-  <si>
-    <t>lectora: LectoraCarga</t>
-  </si>
-  <si>
-    <t>traerLectoraAutonoma</t>
-  </si>
-  <si>
-    <t>Trae una lectora autonoma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> numeroSerieLectora: int</t>
-  </si>
-  <si>
-    <t>lectora: LectoraAutonoma</t>
-  </si>
-  <si>
-    <t>traerBoletosRedSube</t>
-  </si>
-  <si>
-    <t>MovimientoAlta</t>
-  </si>
-  <si>
-    <t>Crea un objeto boleto con tramo de colectivo y le resta el saldo a la tarjeta.</t>
-  </si>
-  <si>
-    <t>agrega un boleto a la base de datos</t>
-  </si>
-  <si>
-    <t>boleto:Boleto</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>traerTarifaSocial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boletos:List&lt;Boleto&gt;, nuevoBoleto: Boleto </t>
-  </si>
-  <si>
-    <t>Al nuevo boleto le cambia el monto (si corresponde) revisando los boletos de las ultimas 2 horas.</t>
-  </si>
-  <si>
-    <t>nuevoBoleto: Boleto</t>
-  </si>
-  <si>
-    <t>Al nuevo boleto le cambia el monto (si corresponde) descontando el porcentaje de la tarifa social.</t>
-  </si>
-  <si>
-    <t>traerTarjetaConBeneficios</t>
-  </si>
-  <si>
-    <t>TramosConsultas</t>
-  </si>
-  <si>
-    <t>traerUltimoBoleto</t>
-  </si>
-  <si>
-    <t>traerTramoTrenYSubte</t>
-  </si>
-  <si>
-    <t>traerTramoUnaEstacion</t>
+    <t>Trae un usuario por numero de dni</t>
+  </si>
+  <si>
+    <t>int dni</t>
+  </si>
+  <si>
+    <t>trae un usuario por id</t>
   </si>
 </sst>
 </file>
@@ -619,19 +949,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
     <col min="4" max="4" width="95.85546875" customWidth="1"/>
-    <col min="5" max="5" width="98.28515625" customWidth="1"/>
+    <col min="5" max="5" width="144.140625" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -652,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,13 +990,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,16 +1010,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,13 +1030,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,16 +1050,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,19 +1070,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,19 +1087,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -762,19 +1104,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,19 +1124,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,19 +1144,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -822,16 +1164,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,16 +1184,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,19 +1204,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,19 +1224,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,16 +1244,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,19 +1264,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,16 +1284,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,16 +1304,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,19 +1324,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,19 +1344,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,19 +1364,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
         <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,19 +1384,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,19 +1404,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,19 +1424,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,19 +1444,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,16 +1464,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,10 +1484,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,10 +1504,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,23 +1524,706 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>91</v>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
